--- a/EXEL.xlsx
+++ b/EXEL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrateur\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\farou\Desktop\Le Sauveur 2\Devoirs maison\BUR-WEB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F2CCF81-8372-4376-922B-F836FC600873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6824E8B6-F0C6-43B5-A5F2-D8426E4DBA23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{7FB0A6DC-2B24-447D-ADF2-72958BE9D022}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{7FB0A6DC-2B24-447D-ADF2-72958BE9D022}"/>
   </bookViews>
   <sheets>
     <sheet name="Question 1" sheetId="1" r:id="rId1"/>
@@ -190,8 +190,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$DZD]_-;\-* #,##0.00\ [$DZD]_-;_-* &quot;-&quot;??\ [$DZD]_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$DZD]_-;\-* #,##0.00\ [$DZD]_-;_-* &quot;-&quot;??\ [$DZD]_-;_-@_-"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -449,7 +449,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="43">
@@ -490,13 +490,13 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="5" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -511,28 +511,28 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -572,9 +572,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Milliers" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Pourcentage" xfId="2" builtinId="5"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -597,7 +597,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -634,7 +634,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -645,31 +645,31 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.4914260717410336E-2"/>
-          <c:y val="0.11276065072114232"/>
-          <c:w val="0.89019685039370078"/>
-          <c:h val="0.73943486782035373"/>
+          <c:x val="7.3063104642742988E-2"/>
+          <c:y val="0.12007904894241161"/>
+          <c:w val="0.88920792308368857"/>
+          <c:h val="0.60873811334330874"/>
         </c:manualLayout>
       </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Question 4'!$C$1</c:f>
+              <c:f>'Question 4'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Speed (m/s)</c:v>
+                  <c:v>Distance (m)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -680,46 +680,46 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:xVal>
+          <c:cat>
             <c:numRef>
-              <c:f>'Question 4'!$A$2:$A$11</c:f>
+              <c:f>'Question 4'!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>'Question 4'!$C$2:$C$11</c:f>
               <c:numCache>
@@ -757,11 +757,11 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
+          </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4CD7-4D68-85C2-2B82326B8D27}"/>
+              <c16:uniqueId val="{00000000-4087-412A-8D51-10E4B0D91F20}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -773,19 +773,19 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="277370272"/>
-        <c:axId val="277368608"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="277370272"/>
+        <c:smooth val="0"/>
+        <c:axId val="1426656879"/>
+        <c:axId val="1426661871"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1426656879"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -793,8 +793,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -818,16 +818,18 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="277368608"/>
+        <c:crossAx val="1426661871"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="1"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="277368608"/>
+        <c:axId val="1426661871"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -848,19 +850,13 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -881,12 +877,12 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="277370272"/>
+        <c:crossAx val="1426656879"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -896,8 +892,56 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.42117531604845698"/>
+          <c:y val="0.86804752209712099"/>
+          <c:w val="0.18194786744035837"/>
+          <c:h val="6.6176933765632245E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -922,7 +966,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -936,7 +980,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -948,31 +992,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Speed/Distance</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -998,7 +1017,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1009,61 +1028,31 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="6.690919478015446E-2"/>
-          <c:y val="0.13752897462621663"/>
-          <c:w val="0.85878485462514309"/>
-          <c:h val="0.72450526729082754"/>
+          <c:x val="6.9358705161854772E-2"/>
+          <c:y val="0.15782407407407409"/>
+          <c:w val="0.90286351706036749"/>
+          <c:h val="0.61469289790103676"/>
         </c:manualLayout>
       </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Question 4'!$C$1:$C$11</c:f>
+              <c:f>'Question 4'!$C$1</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>Speed (m/s)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.666666667</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.75</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.166666667</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.375</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.222222222</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9.1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -1074,46 +1063,7 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Question 4'!$B$2:$B$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>91</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          <c:val>
             <c:numRef>
               <c:f>'Question 4'!$C$2:$C$11</c:f>
               <c:numCache>
@@ -1151,11 +1101,11 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
+          </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1A2F-4688-A935-2A20751FC544}"/>
+              <c16:uniqueId val="{00000000-C4C7-4F42-9171-A20328509AEB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1167,85 +1117,19 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="283659072"/>
-        <c:axId val="283657408"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="283659072"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="91"/>
-          <c:min val="5"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="in"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="283657408"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="283657408"/>
+        <c:smooth val="0"/>
+        <c:axId val="1491945695"/>
+        <c:axId val="1491941535"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1491945695"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
+        <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1253,8 +1137,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1278,12 +1162,71 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="283659072"/>
+        <c:crossAx val="1491941535"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1491941535"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1491945695"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1293,8 +1236,49 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.39689544047469755"/>
+          <c:y val="0.86817085917357673"/>
+          <c:w val="0.1944600744520055"/>
+          <c:h val="6.637214595963116E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
+    <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -1319,7 +1303,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1411,7 +1395,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1438,8 +1422,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1519,6 +1503,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -1529,6 +1518,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -1540,7 +1534,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1560,6 +1554,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1572,10 +1569,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1615,23 +1612,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1736,8 +1732,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1869,20 +1865,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1896,17 +1891,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1927,7 +1911,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1954,8 +1938,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2035,6 +2019,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -2045,6 +2034,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -2056,7 +2050,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2076,6 +2070,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2088,10 +2085,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2131,23 +2128,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -2252,8 +2248,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2385,20 +2381,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2412,17 +2407,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -2446,23 +2430,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>338137</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>142873</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>33337</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="2" name="Graphique 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52536D6D-27D4-4ED8-B880-001E71BBD0AA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0DA339C-E747-4358-0DB1-037E1154E6DF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2482,23 +2466,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>256222</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>166686</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>308610</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="5" name="Graphique 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{752C3089-B043-4E69-9C7B-BB6BC2217D67}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5517DBC-63BE-1D18-2AF3-0E08F65B6D2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3640,7 +3624,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3942,21 +3926,21 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
-    <col min="2" max="2" width="32.5546875" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="32.5703125" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="36"/>
       <c r="C1" s="36"/>
     </row>
-    <row r="2" spans="1:3" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3967,7 +3951,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>591</v>
       </c>
@@ -3978,7 +3962,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>9567</v>
       </c>
@@ -3989,7 +3973,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>542</v>
       </c>
@@ -4000,7 +3984,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>346</v>
       </c>
@@ -4011,7 +3995,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>849</v>
       </c>
@@ -4022,7 +4006,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>552</v>
       </c>
@@ -4033,7 +4017,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>173</v>
       </c>
@@ -4044,7 +4028,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>1355</v>
       </c>
@@ -4055,7 +4039,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>193</v>
       </c>
@@ -4066,7 +4050,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>615</v>
       </c>
@@ -4077,7 +4061,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>1579</v>
       </c>
@@ -4088,7 +4072,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>547</v>
       </c>
@@ -4099,7 +4083,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>1687</v>
       </c>
@@ -4110,7 +4094,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>972</v>
       </c>
@@ -4121,7 +4105,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>234</v>
       </c>
@@ -4132,7 +4116,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>151</v>
       </c>
@@ -4143,7 +4127,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>1793</v>
       </c>
@@ -4154,7 +4138,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>315</v>
       </c>
@@ -4165,7 +4149,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>618</v>
       </c>
@@ -4176,7 +4160,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>246</v>
       </c>
@@ -4187,7 +4171,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>784</v>
       </c>
@@ -4198,7 +4182,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>316</v>
       </c>
@@ -4209,7 +4193,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>3155</v>
       </c>
@@ -4220,7 +4204,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>318</v>
       </c>
@@ -4231,7 +4215,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>608</v>
       </c>
@@ -4242,7 +4226,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>561</v>
       </c>
@@ -4253,7 +4237,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>357</v>
       </c>
@@ -4264,7 +4248,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>1688</v>
       </c>
@@ -4275,7 +4259,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>972</v>
       </c>
@@ -4286,7 +4270,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>568</v>
       </c>
@@ -4297,7 +4281,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>632</v>
       </c>
@@ -4308,7 +4292,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>551</v>
       </c>
@@ -4319,7 +4303,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>948</v>
       </c>
@@ -4330,7 +4314,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>1358</v>
       </c>
@@ -4341,7 +4325,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>135</v>
       </c>
@@ -4352,7 +4336,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>849</v>
       </c>
@@ -4363,7 +4347,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>158</v>
       </c>
@@ -4374,7 +4358,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>1889</v>
       </c>
@@ -4385,7 +4369,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>651</v>
       </c>
@@ -4396,7 +4380,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>651</v>
       </c>
@@ -4423,16 +4407,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" customWidth="1"/>
-    <col min="2" max="2" width="21.109375" customWidth="1"/>
-    <col min="3" max="3" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="37" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="37" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>31</v>
       </c>
@@ -4443,7 +4427,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>4</v>
       </c>
@@ -4454,7 +4438,7 @@
         <v>1022.125</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
         <v>6</v>
       </c>
@@ -4465,7 +4449,7 @@
         <v>609.625</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
         <v>7</v>
       </c>
@@ -4476,7 +4460,7 @@
         <v>970.125</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
         <v>5</v>
       </c>
@@ -4487,7 +4471,7 @@
         <v>1883.875</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
         <v>8</v>
       </c>
@@ -4498,7 +4482,7 @@
         <v>523.5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="34" t="s">
         <v>33</v>
       </c>
@@ -4529,14 +4513,14 @@
       </pivotSelection>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>31</v>
       </c>
@@ -4547,7 +4531,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>10</v>
       </c>
@@ -4558,7 +4542,7 @@
         <v>2825.4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
         <v>13</v>
       </c>
@@ -4569,7 +4553,7 @@
         <v>1050.5999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
         <v>14</v>
       </c>
@@ -4580,7 +4564,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
         <v>11</v>
       </c>
@@ -4591,7 +4575,7 @@
         <v>1249.4000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
         <v>12</v>
       </c>
@@ -4602,7 +4586,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="34" t="s">
         <v>16</v>
       </c>
@@ -4613,7 +4597,7 @@
         <v>377.4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
         <v>15</v>
       </c>
@@ -4624,7 +4608,7 @@
         <v>532.20000000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
         <v>9</v>
       </c>
@@ -4635,7 +4619,7 @@
         <v>538.79999999999995</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="34" t="s">
         <v>33</v>
       </c>
@@ -4659,18 +4643,18 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.88671875" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>32</v>
       </c>
@@ -4678,7 +4662,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>31</v>
       </c>
@@ -4701,7 +4685,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
         <v>10</v>
       </c>
@@ -4724,7 +4708,7 @@
         <v>14127</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
         <v>13</v>
       </c>
@@ -4747,7 +4731,7 @@
         <v>5253</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
         <v>14</v>
       </c>
@@ -4770,7 +4754,7 @@
         <v>4965</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
         <v>11</v>
       </c>
@@ -4793,7 +4777,7 @@
         <v>6247</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="34" t="s">
         <v>12</v>
       </c>
@@ -4816,7 +4800,7 @@
         <v>2240</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
         <v>16</v>
       </c>
@@ -4839,7 +4823,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
         <v>15</v>
       </c>
@@ -4862,7 +4846,7 @@
         <v>2661</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="34" t="s">
         <v>9</v>
       </c>
@@ -4885,7 +4869,7 @@
         <v>2694</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="34" t="s">
         <v>33</v>
       </c>
@@ -4921,16 +4905,16 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>17</v>
       </c>
@@ -4953,7 +4937,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -4980,7 +4964,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -5007,7 +4991,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -5034,7 +5018,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -5061,7 +5045,7 @@
         <v>2709</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -5088,7 +5072,7 @@
         <v>4761</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -5115,7 +5099,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -5142,7 +5126,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -5169,7 +5153,7 @@
         <v>4536</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -5196,7 +5180,7 @@
         <v>3240</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -5223,7 +5207,7 @@
         <v>1728</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -5250,7 +5234,7 @@
         <v>156.75</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -5277,7 +5261,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -5304,7 +5288,7 @@
         <v>142.5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>14</v>
       </c>
@@ -5331,8 +5315,8 @@
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="17" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E17" s="37" t="s">
         <v>24</v>
       </c>
@@ -5342,7 +5326,7 @@
         <v>20348.25</v>
       </c>
     </row>
-    <row r="18" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E18" s="39" t="s">
         <v>25</v>
       </c>
@@ -5351,7 +5335,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="19" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E19" s="39" t="s">
         <v>26</v>
       </c>
@@ -5361,7 +5345,7 @@
         <v>3866.1675</v>
       </c>
     </row>
-    <row r="20" spans="5:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E20" s="41" t="s">
         <v>27</v>
       </c>
@@ -5387,18 +5371,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE82C5B9-F803-4A12-950A-9F28950052BC}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.109375" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>28</v>
       </c>
@@ -5409,7 +5393,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="30">
         <v>1</v>
       </c>
@@ -5421,7 +5405,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="30">
         <v>2</v>
       </c>
@@ -5433,7 +5417,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="30">
         <v>3</v>
       </c>
@@ -5445,7 +5429,7 @@
         <v>5.6666666666666661</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="30">
         <v>4</v>
       </c>
@@ -5457,7 +5441,7 @@
         <v>6.75</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="30">
         <v>5</v>
       </c>
@@ -5469,7 +5453,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="30">
         <v>6</v>
       </c>
@@ -5481,7 +5465,7 @@
         <v>8.1666666666666661</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="30">
         <v>7</v>
       </c>
@@ -5493,7 +5477,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="30">
         <v>8</v>
       </c>
@@ -5505,7 +5489,7 @@
         <v>9.375</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="30">
         <v>9</v>
       </c>
@@ -5517,7 +5501,7 @@
         <v>9.2222222222222214</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="31">
         <v>10</v>
       </c>
